--- a/cycle/data.xlsx
+++ b/cycle/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCodes\OpenTransportData\cycle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A49B36-9E55-4CD1-AC47-B31950DCEC29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CFCC5D-C97B-430F-9DED-2A82215B9F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t0" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -402,9 +404,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,14 +688,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -705,12 +841,12 @@
       <selection activeCell="Q1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="17" width="14.33203125" customWidth="1"/>
+    <col min="16" max="17" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -724,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -759,7 +895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -794,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -829,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -864,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>5</v>
       </c>
@@ -899,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>6</v>
       </c>
@@ -934,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>7</v>
       </c>
@@ -969,7 +1105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>8</v>
       </c>
@@ -1004,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>9</v>
       </c>
@@ -1039,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>10</v>
       </c>
@@ -1074,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>11</v>
       </c>
@@ -1109,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>12</v>
       </c>
@@ -1157,14 +1293,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>34</v>
       </c>
@@ -1204,7 +1340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -1224,7 +1360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -1244,7 +1380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>38</v>
       </c>
@@ -1264,7 +1400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>39</v>
       </c>
@@ -1284,7 +1420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>40</v>
       </c>
@@ -1304,7 +1440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>41</v>
       </c>
@@ -1324,7 +1460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>42</v>
       </c>
@@ -1344,7 +1480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>43</v>
       </c>
@@ -1364,7 +1500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -1384,7 +1520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>46</v>
       </c>
@@ -1424,7 +1560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>47</v>
       </c>
@@ -1444,7 +1580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>48</v>
       </c>
@@ -1464,7 +1600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -1484,7 +1620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -1504,7 +1640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -1524,7 +1660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>52</v>
       </c>
@@ -1544,7 +1680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -1564,7 +1700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -1584,7 +1720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>55</v>
       </c>
@@ -1604,7 +1740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>57</v>
       </c>
@@ -1644,7 +1780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>58</v>
       </c>
@@ -1664,7 +1800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>59</v>
       </c>
@@ -1684,7 +1820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>60</v>
       </c>
@@ -1704,7 +1840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>61</v>
       </c>
@@ -1724,7 +1860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>62</v>
       </c>
@@ -1744,7 +1880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>63</v>
       </c>
@@ -1764,7 +1900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>64</v>
       </c>
@@ -1784,7 +1920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>65</v>
       </c>
@@ -1804,7 +1940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>67</v>
       </c>
@@ -1844,7 +1980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -1864,7 +2000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -1884,7 +2020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>
@@ -1904,7 +2040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>71</v>
       </c>
@@ -1924,7 +2060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>72</v>
       </c>
@@ -1944,7 +2080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>73</v>
       </c>
@@ -1964,7 +2100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>74</v>
       </c>
@@ -1984,7 +2120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>75</v>
       </c>
@@ -2004,7 +2140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>76</v>
       </c>
@@ -2024,7 +2160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>77</v>
       </c>
@@ -2044,7 +2180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>78</v>
       </c>
@@ -2064,7 +2200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>79</v>
       </c>
@@ -2084,7 +2220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>80</v>
       </c>
@@ -2104,7 +2240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>81</v>
       </c>
@@ -2124,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>82</v>
       </c>
@@ -2144,7 +2280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>83</v>
       </c>
@@ -2164,7 +2300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -2184,7 +2320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -2204,7 +2340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>86</v>
       </c>
@@ -2224,7 +2360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>87</v>
       </c>
@@ -2244,7 +2380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>88</v>
       </c>
@@ -2264,7 +2400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>89</v>
       </c>
@@ -2284,7 +2420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>90</v>
       </c>
@@ -2304,7 +2440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>91</v>
       </c>
@@ -2324,7 +2460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>92</v>
       </c>
@@ -2344,7 +2480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>93</v>
       </c>
@@ -2364,7 +2500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>94</v>
       </c>
@@ -2384,7 +2520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>95</v>
       </c>
@@ -2404,7 +2540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>96</v>
       </c>
@@ -2424,7 +2560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>97</v>
       </c>
@@ -2444,7 +2580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>98</v>
       </c>
@@ -2464,7 +2600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>99</v>
       </c>
@@ -2484,7 +2620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>100</v>
       </c>
@@ -2504,7 +2640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>101</v>
       </c>
@@ -2524,7 +2660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>102</v>
       </c>
@@ -2544,7 +2680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>103</v>
       </c>
@@ -2564,7 +2700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>104</v>
       </c>
@@ -2584,7 +2720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>105</v>
       </c>
@@ -2604,7 +2740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>106</v>
       </c>
@@ -2624,7 +2760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>107</v>
       </c>
@@ -2644,7 +2780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>108</v>
       </c>
@@ -2664,7 +2800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>109</v>
       </c>
@@ -2693,13 +2829,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B43717-84F4-487C-97E6-BEEAA930DCF6}">
   <dimension ref="A1:D528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:C528"/>
+    <sheetView topLeftCell="A501" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H529" sqref="H529"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2714,7 +2850,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2725,11 +2861,11 @@
         <v>12.5</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="C2:D65" si="0">C2/2</f>
+        <f t="shared" ref="D2:D65" si="0">C2/2</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2744,7 +2880,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2759,7 +2895,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2774,7 +2910,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2789,7 +2925,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2804,7 +2940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2819,7 +2955,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2834,7 +2970,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2849,7 +2985,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2864,7 +3000,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2879,7 +3015,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2894,7 +3030,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2909,7 +3045,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2924,7 +3060,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2939,7 +3075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2954,7 +3090,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2969,7 +3105,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2984,7 +3120,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2999,7 +3135,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3014,7 +3150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3029,7 +3165,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3044,7 +3180,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3059,7 +3195,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3074,7 +3210,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3089,7 +3225,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3104,7 +3240,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3119,7 +3255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3134,7 +3270,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3149,7 +3285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3164,7 +3300,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3179,7 +3315,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3194,7 +3330,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3209,7 +3345,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3224,7 +3360,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3239,7 +3375,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3254,7 +3390,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3269,7 +3405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3284,7 +3420,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3299,7 +3435,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3314,7 +3450,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3329,7 +3465,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3344,7 +3480,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3359,7 +3495,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3374,7 +3510,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3389,7 +3525,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3404,7 +3540,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3419,7 +3555,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3434,7 +3570,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3449,7 +3585,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3464,7 +3600,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3479,7 +3615,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3494,7 +3630,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3509,7 +3645,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3524,7 +3660,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3539,7 +3675,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3554,7 +3690,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -3569,7 +3705,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3584,7 +3720,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3599,7 +3735,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3614,7 +3750,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -3629,7 +3765,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3644,7 +3780,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -3659,7 +3795,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3674,7 +3810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -3685,11 +3821,11 @@
         <v>50</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="C66:D129" si="1">C66/2</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D66:D129" si="1">C66/2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -3704,7 +3840,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -3719,7 +3855,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3734,7 +3870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -3749,7 +3885,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -3764,7 +3900,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -3779,7 +3915,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -3794,7 +3930,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -3809,7 +3945,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3824,7 +3960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -3839,7 +3975,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3854,7 +3990,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -3869,7 +4005,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -3884,7 +4020,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -3899,7 +4035,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -3914,7 +4050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -3929,7 +4065,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -3944,7 +4080,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5</v>
       </c>
@@ -3959,7 +4095,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -3974,7 +4110,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -3989,7 +4125,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -4004,7 +4140,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5</v>
       </c>
@@ -4019,7 +4155,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5</v>
       </c>
@@ -4034,7 +4170,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5</v>
       </c>
@@ -4049,7 +4185,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5</v>
       </c>
@@ -4064,7 +4200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -4079,7 +4215,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
@@ -4094,7 +4230,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
@@ -4109,7 +4245,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
@@ -4124,7 +4260,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -4139,7 +4275,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
@@ -4154,7 +4290,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -4169,7 +4305,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -4184,7 +4320,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -4199,7 +4335,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -4214,7 +4350,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -4229,7 +4365,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -4244,7 +4380,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -4259,7 +4395,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -4274,7 +4410,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6</v>
       </c>
@@ -4289,7 +4425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
@@ -4304,7 +4440,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6</v>
       </c>
@@ -4319,7 +4455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -4334,7 +4470,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -4349,7 +4485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -4364,7 +4500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -4379,7 +4515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -4394,7 +4530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6</v>
       </c>
@@ -4409,7 +4545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
@@ -4424,7 +4560,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
@@ -4439,7 +4575,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
@@ -4454,7 +4590,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6</v>
       </c>
@@ -4469,7 +4605,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -4484,7 +4620,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6</v>
       </c>
@@ -4499,7 +4635,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -4514,7 +4650,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -4529,7 +4665,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6</v>
       </c>
@@ -4544,7 +4680,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -4559,7 +4695,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -4574,7 +4710,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -4589,7 +4725,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -4604,7 +4740,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
@@ -4619,7 +4755,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7</v>
       </c>
@@ -4634,7 +4770,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -4645,11 +4781,11 @@
         <v>12.5</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="C130:D193" si="2">C130/2</f>
+        <f t="shared" ref="D130:D193" si="2">C130/2</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7</v>
       </c>
@@ -4664,7 +4800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7</v>
       </c>
@@ -4679,7 +4815,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7</v>
       </c>
@@ -4694,7 +4830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -4709,7 +4845,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7</v>
       </c>
@@ -4724,7 +4860,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
@@ -4739,7 +4875,7 @@
         <v>118.75</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -4754,7 +4890,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7</v>
       </c>
@@ -4769,7 +4905,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -4784,7 +4920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7</v>
       </c>
@@ -4799,7 +4935,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7</v>
       </c>
@@ -4814,7 +4950,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>7</v>
       </c>
@@ -4829,7 +4965,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7</v>
       </c>
@@ -4844,7 +4980,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>7</v>
       </c>
@@ -4859,7 +4995,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -4874,7 +5010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7</v>
       </c>
@@ -4889,7 +5025,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7</v>
       </c>
@@ -4904,7 +5040,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -4919,7 +5055,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
@@ -4934,7 +5070,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7</v>
       </c>
@@ -4949,7 +5085,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>8</v>
       </c>
@@ -4964,7 +5100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
@@ -4979,7 +5115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -4994,7 +5130,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -5009,7 +5145,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8</v>
       </c>
@@ -5024,7 +5160,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
@@ -5039,7 +5175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -5054,7 +5190,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
@@ -5069,7 +5205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8</v>
       </c>
@@ -5084,7 +5220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8</v>
       </c>
@@ -5099,7 +5235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8</v>
       </c>
@@ -5114,7 +5250,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8</v>
       </c>
@@ -5129,7 +5265,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8</v>
       </c>
@@ -5144,7 +5280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8</v>
       </c>
@@ -5159,7 +5295,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8</v>
       </c>
@@ -5174,7 +5310,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -5189,7 +5325,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8</v>
       </c>
@@ -5204,7 +5340,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8</v>
       </c>
@@ -5219,7 +5355,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8</v>
       </c>
@@ -5234,7 +5370,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8</v>
       </c>
@@ -5249,7 +5385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -5264,7 +5400,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -5279,7 +5415,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8</v>
       </c>
@@ -5294,7 +5430,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9</v>
       </c>
@@ -5309,7 +5445,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>9</v>
       </c>
@@ -5324,7 +5460,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>9</v>
       </c>
@@ -5339,7 +5475,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9</v>
       </c>
@@ -5354,7 +5490,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5369,7 +5505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>9</v>
       </c>
@@ -5384,7 +5520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>9</v>
       </c>
@@ -5399,7 +5535,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9</v>
       </c>
@@ -5414,7 +5550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9</v>
       </c>
@@ -5429,7 +5565,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>9</v>
       </c>
@@ -5444,7 +5580,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9</v>
       </c>
@@ -5459,7 +5595,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>9</v>
       </c>
@@ -5474,7 +5610,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
@@ -5489,7 +5625,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -5504,7 +5640,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9</v>
       </c>
@@ -5519,7 +5655,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9</v>
       </c>
@@ -5534,7 +5670,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -5549,7 +5685,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9</v>
       </c>
@@ -5564,7 +5700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9</v>
       </c>
@@ -5579,7 +5715,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -5594,7 +5730,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -5605,11 +5741,11 @@
         <v>87.5</v>
       </c>
       <c r="D194">
-        <f t="shared" ref="C194:D257" si="3">C194/2</f>
+        <f t="shared" ref="D194:D257" si="3">C194/2</f>
         <v>43.75</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9</v>
       </c>
@@ -5624,7 +5760,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9</v>
       </c>
@@ -5639,7 +5775,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -5654,7 +5790,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10</v>
       </c>
@@ -5669,7 +5805,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10</v>
       </c>
@@ -5684,7 +5820,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10</v>
       </c>
@@ -5699,7 +5835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10</v>
       </c>
@@ -5714,7 +5850,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10</v>
       </c>
@@ -5729,7 +5865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10</v>
       </c>
@@ -5744,7 +5880,7 @@
         <v>118.75</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10</v>
       </c>
@@ -5759,7 +5895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10</v>
       </c>
@@ -5774,7 +5910,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10</v>
       </c>
@@ -5789,7 +5925,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>10</v>
       </c>
@@ -5804,7 +5940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10</v>
       </c>
@@ -5819,7 +5955,7 @@
         <v>118.75</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10</v>
       </c>
@@ -5834,7 +5970,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>10</v>
       </c>
@@ -5849,7 +5985,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>10</v>
       </c>
@@ -5864,7 +6000,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>10</v>
       </c>
@@ -5879,7 +6015,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>10</v>
       </c>
@@ -5894,7 +6030,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>10</v>
       </c>
@@ -5909,7 +6045,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>10</v>
       </c>
@@ -5924,7 +6060,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>10</v>
       </c>
@@ -5939,7 +6075,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>10</v>
       </c>
@@ -5954,7 +6090,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>10</v>
       </c>
@@ -5969,7 +6105,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>10</v>
       </c>
@@ -5984,7 +6120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>11</v>
       </c>
@@ -5999,7 +6135,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>11</v>
       </c>
@@ -6014,7 +6150,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>11</v>
       </c>
@@ -6029,7 +6165,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>11</v>
       </c>
@@ -6044,7 +6180,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>11</v>
       </c>
@@ -6059,7 +6195,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>11</v>
       </c>
@@ -6074,7 +6210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>11</v>
       </c>
@@ -6089,7 +6225,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>11</v>
       </c>
@@ -6104,7 +6240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>11</v>
       </c>
@@ -6119,7 +6255,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>11</v>
       </c>
@@ -6134,7 +6270,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>11</v>
       </c>
@@ -6149,7 +6285,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>11</v>
       </c>
@@ -6164,7 +6300,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>11</v>
       </c>
@@ -6179,7 +6315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>11</v>
       </c>
@@ -6194,7 +6330,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>11</v>
       </c>
@@ -6209,7 +6345,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>11</v>
       </c>
@@ -6224,7 +6360,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>11</v>
       </c>
@@ -6239,7 +6375,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>11</v>
       </c>
@@ -6254,7 +6390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>11</v>
       </c>
@@ -6269,7 +6405,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>11</v>
       </c>
@@ -6284,7 +6420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11</v>
       </c>
@@ -6299,7 +6435,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>11</v>
       </c>
@@ -6314,7 +6450,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11</v>
       </c>
@@ -6329,7 +6465,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>12</v>
       </c>
@@ -6344,7 +6480,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>12</v>
       </c>
@@ -6359,7 +6495,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>12</v>
       </c>
@@ -6374,7 +6510,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>12</v>
       </c>
@@ -6389,7 +6525,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>12</v>
       </c>
@@ -6404,7 +6540,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>12</v>
       </c>
@@ -6419,7 +6555,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>12</v>
       </c>
@@ -6434,7 +6570,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>12</v>
       </c>
@@ -6449,7 +6585,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>12</v>
       </c>
@@ -6464,7 +6600,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>12</v>
       </c>
@@ -6479,7 +6615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>12</v>
       </c>
@@ -6494,7 +6630,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>12</v>
       </c>
@@ -6509,7 +6645,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>12</v>
       </c>
@@ -6524,7 +6660,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>12</v>
       </c>
@@ -6539,7 +6675,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>12</v>
       </c>
@@ -6554,7 +6690,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>12</v>
       </c>
@@ -6565,11 +6701,11 @@
         <v>75</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="C258:D321" si="4">C258/2</f>
+        <f t="shared" ref="D258:D321" si="4">C258/2</f>
         <v>37.5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>12</v>
       </c>
@@ -6584,7 +6720,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>12</v>
       </c>
@@ -6599,7 +6735,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>12</v>
       </c>
@@ -6614,7 +6750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>12</v>
       </c>
@@ -6629,7 +6765,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>12</v>
       </c>
@@ -6644,7 +6780,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>12</v>
       </c>
@@ -6659,7 +6795,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>12</v>
       </c>
@@ -6674,7 +6810,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>13</v>
       </c>
@@ -6689,7 +6825,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>13</v>
       </c>
@@ -6704,7 +6840,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>13</v>
       </c>
@@ -6719,7 +6855,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>13</v>
       </c>
@@ -6734,7 +6870,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>13</v>
       </c>
@@ -6749,7 +6885,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>13</v>
       </c>
@@ -6764,7 +6900,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>13</v>
       </c>
@@ -6779,7 +6915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>13</v>
       </c>
@@ -6794,7 +6930,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>13</v>
       </c>
@@ -6809,7 +6945,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>13</v>
       </c>
@@ -6824,7 +6960,7 @@
         <v>118.75</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>13</v>
       </c>
@@ -6839,7 +6975,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>13</v>
       </c>
@@ -6854,7 +6990,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>13</v>
       </c>
@@ -6869,7 +7005,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>13</v>
       </c>
@@ -6884,7 +7020,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>13</v>
       </c>
@@ -6899,7 +7035,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>13</v>
       </c>
@@ -6914,7 +7050,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>13</v>
       </c>
@@ -6929,7 +7065,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>13</v>
       </c>
@@ -6944,7 +7080,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>13</v>
       </c>
@@ -6959,7 +7095,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>13</v>
       </c>
@@ -6974,7 +7110,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>13</v>
       </c>
@@ -6989,7 +7125,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>13</v>
       </c>
@@ -7004,7 +7140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>13</v>
       </c>
@@ -7019,7 +7155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>14</v>
       </c>
@@ -7034,7 +7170,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>14</v>
       </c>
@@ -7049,7 +7185,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>14</v>
       </c>
@@ -7064,7 +7200,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>14</v>
       </c>
@@ -7079,7 +7215,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>14</v>
       </c>
@@ -7094,7 +7230,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>14</v>
       </c>
@@ -7109,7 +7245,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>14</v>
       </c>
@@ -7124,7 +7260,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>14</v>
       </c>
@@ -7139,7 +7275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>14</v>
       </c>
@@ -7154,7 +7290,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>14</v>
       </c>
@@ -7169,7 +7305,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>14</v>
       </c>
@@ -7184,7 +7320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>14</v>
       </c>
@@ -7199,7 +7335,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>14</v>
       </c>
@@ -7214,7 +7350,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>14</v>
       </c>
@@ -7229,7 +7365,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>14</v>
       </c>
@@ -7244,7 +7380,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>14</v>
       </c>
@@ -7259,7 +7395,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>14</v>
       </c>
@@ -7274,7 +7410,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>14</v>
       </c>
@@ -7289,7 +7425,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>14</v>
       </c>
@@ -7304,7 +7440,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>14</v>
       </c>
@@ -7319,7 +7455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>14</v>
       </c>
@@ -7334,7 +7470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14</v>
       </c>
@@ -7349,7 +7485,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14</v>
       </c>
@@ -7364,7 +7500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>15</v>
       </c>
@@ -7379,7 +7515,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>15</v>
       </c>
@@ -7394,7 +7530,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>15</v>
       </c>
@@ -7409,7 +7545,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>15</v>
       </c>
@@ -7424,7 +7560,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>15</v>
       </c>
@@ -7439,7 +7575,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>15</v>
       </c>
@@ -7454,7 +7590,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>15</v>
       </c>
@@ -7469,7 +7605,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>15</v>
       </c>
@@ -7484,7 +7620,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>15</v>
       </c>
@@ -7499,7 +7635,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>15</v>
       </c>
@@ -7514,7 +7650,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>15</v>
       </c>
@@ -7525,11 +7661,11 @@
         <v>175</v>
       </c>
       <c r="D322">
-        <f t="shared" ref="C322:D385" si="5">C322/2</f>
+        <f t="shared" ref="D322:D385" si="5">C322/2</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>15</v>
       </c>
@@ -7544,7 +7680,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>15</v>
       </c>
@@ -7559,7 +7695,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>15</v>
       </c>
@@ -7574,7 +7710,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>15</v>
       </c>
@@ -7589,7 +7725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>15</v>
       </c>
@@ -7604,7 +7740,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>15</v>
       </c>
@@ -7619,7 +7755,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>15</v>
       </c>
@@ -7634,7 +7770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>15</v>
       </c>
@@ -7649,7 +7785,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>15</v>
       </c>
@@ -7664,7 +7800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>15</v>
       </c>
@@ -7679,7 +7815,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>15</v>
       </c>
@@ -7694,7 +7830,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>15</v>
       </c>
@@ -7709,7 +7845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>16</v>
       </c>
@@ -7724,7 +7860,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>16</v>
       </c>
@@ -7739,7 +7875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>16</v>
       </c>
@@ -7754,7 +7890,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>16</v>
       </c>
@@ -7769,7 +7905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>16</v>
       </c>
@@ -7784,7 +7920,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>16</v>
       </c>
@@ -7799,7 +7935,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>16</v>
       </c>
@@ -7814,7 +7950,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>16</v>
       </c>
@@ -7829,7 +7965,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>16</v>
       </c>
@@ -7844,7 +7980,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>16</v>
       </c>
@@ -7859,7 +7995,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>16</v>
       </c>
@@ -7874,7 +8010,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>16</v>
       </c>
@@ -7889,7 +8025,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>16</v>
       </c>
@@ -7904,7 +8040,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>16</v>
       </c>
@@ -7919,7 +8055,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>16</v>
       </c>
@@ -7934,7 +8070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>16</v>
       </c>
@@ -7949,7 +8085,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>16</v>
       </c>
@@ -7964,7 +8100,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>16</v>
       </c>
@@ -7979,7 +8115,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>16</v>
       </c>
@@ -7994,7 +8130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>16</v>
       </c>
@@ -8009,7 +8145,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>16</v>
       </c>
@@ -8024,7 +8160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>16</v>
       </c>
@@ -8039,7 +8175,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>16</v>
       </c>
@@ -8054,7 +8190,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>17</v>
       </c>
@@ -8069,7 +8205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>17</v>
       </c>
@@ -8084,7 +8220,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>17</v>
       </c>
@@ -8099,7 +8235,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>17</v>
       </c>
@@ -8114,7 +8250,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>17</v>
       </c>
@@ -8129,7 +8265,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>17</v>
       </c>
@@ -8144,7 +8280,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>17</v>
       </c>
@@ -8159,7 +8295,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>17</v>
       </c>
@@ -8174,7 +8310,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>17</v>
       </c>
@@ -8189,7 +8325,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>17</v>
       </c>
@@ -8204,7 +8340,7 @@
         <v>243.75</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>17</v>
       </c>
@@ -8219,7 +8355,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>17</v>
       </c>
@@ -8234,7 +8370,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>17</v>
       </c>
@@ -8249,7 +8385,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>17</v>
       </c>
@@ -8264,7 +8400,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>17</v>
       </c>
@@ -8279,7 +8415,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>17</v>
       </c>
@@ -8294,7 +8430,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>17</v>
       </c>
@@ -8309,7 +8445,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>17</v>
       </c>
@@ -8324,7 +8460,7 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>17</v>
       </c>
@@ -8339,7 +8475,7 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>17</v>
       </c>
@@ -8354,7 +8490,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>17</v>
       </c>
@@ -8369,7 +8505,7 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>17</v>
       </c>
@@ -8384,7 +8520,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>17</v>
       </c>
@@ -8399,7 +8535,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>18</v>
       </c>
@@ -8414,7 +8550,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>18</v>
       </c>
@@ -8429,7 +8565,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>18</v>
       </c>
@@ -8444,7 +8580,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>18</v>
       </c>
@@ -8459,7 +8595,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>18</v>
       </c>
@@ -8474,7 +8610,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>18</v>
       </c>
@@ -8485,11 +8621,11 @@
         <v>25</v>
       </c>
       <c r="D386">
-        <f t="shared" ref="C386:D449" si="6">C386/2</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D386:D449" si="6">C386/2</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>18</v>
       </c>
@@ -8504,7 +8640,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>18</v>
       </c>
@@ -8519,7 +8655,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>18</v>
       </c>
@@ -8534,7 +8670,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>18</v>
       </c>
@@ -8549,7 +8685,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>18</v>
       </c>
@@ -8564,7 +8700,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>18</v>
       </c>
@@ -8579,7 +8715,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>18</v>
       </c>
@@ -8594,7 +8730,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>18</v>
       </c>
@@ -8609,7 +8745,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>18</v>
       </c>
@@ -8624,7 +8760,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>18</v>
       </c>
@@ -8639,7 +8775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>18</v>
       </c>
@@ -8654,7 +8790,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>18</v>
       </c>
@@ -8669,7 +8805,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>18</v>
       </c>
@@ -8684,7 +8820,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>19</v>
       </c>
@@ -8699,7 +8835,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>19</v>
       </c>
@@ -8714,7 +8850,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>19</v>
       </c>
@@ -8729,7 +8865,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>19</v>
       </c>
@@ -8744,7 +8880,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>19</v>
       </c>
@@ -8759,7 +8895,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>19</v>
       </c>
@@ -8774,7 +8910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>19</v>
       </c>
@@ -8789,7 +8925,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>19</v>
       </c>
@@ -8804,7 +8940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>19</v>
       </c>
@@ -8819,7 +8955,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>19</v>
       </c>
@@ -8834,7 +8970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>19</v>
       </c>
@@ -8849,7 +8985,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>19</v>
       </c>
@@ -8864,7 +9000,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>19</v>
       </c>
@@ -8879,7 +9015,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>19</v>
       </c>
@@ -8894,7 +9030,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>19</v>
       </c>
@@ -8909,7 +9045,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>19</v>
       </c>
@@ -8924,7 +9060,7 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>19</v>
       </c>
@@ -8939,7 +9075,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>19</v>
       </c>
@@ -8954,7 +9090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>19</v>
       </c>
@@ -8969,7 +9105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>19</v>
       </c>
@@ -8984,7 +9120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>19</v>
       </c>
@@ -8999,7 +9135,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>19</v>
       </c>
@@ -9014,7 +9150,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>20</v>
       </c>
@@ -9029,7 +9165,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>20</v>
       </c>
@@ -9044,7 +9180,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>20</v>
       </c>
@@ -9059,7 +9195,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>20</v>
       </c>
@@ -9074,7 +9210,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>20</v>
       </c>
@@ -9089,7 +9225,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>20</v>
       </c>
@@ -9104,7 +9240,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>20</v>
       </c>
@@ -9119,7 +9255,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>20</v>
       </c>
@@ -9134,7 +9270,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>20</v>
       </c>
@@ -9149,7 +9285,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>20</v>
       </c>
@@ -9164,7 +9300,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>20</v>
       </c>
@@ -9179,7 +9315,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>20</v>
       </c>
@@ -9194,7 +9330,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>20</v>
       </c>
@@ -9209,7 +9345,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>20</v>
       </c>
@@ -9224,7 +9360,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>20</v>
       </c>
@@ -9239,7 +9375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>20</v>
       </c>
@@ -9254,7 +9390,7 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>20</v>
       </c>
@@ -9269,7 +9405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>20</v>
       </c>
@@ -9284,7 +9420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>20</v>
       </c>
@@ -9299,7 +9435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>20</v>
       </c>
@@ -9314,7 +9450,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>20</v>
       </c>
@@ -9329,7 +9465,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>20</v>
       </c>
@@ -9344,7 +9480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>21</v>
       </c>
@@ -9359,7 +9495,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>21</v>
       </c>
@@ -9374,7 +9510,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>21</v>
       </c>
@@ -9389,7 +9525,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>21</v>
       </c>
@@ -9404,7 +9540,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>21</v>
       </c>
@@ -9419,7 +9555,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>21</v>
       </c>
@@ -9434,7 +9570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>21</v>
       </c>
@@ -9445,11 +9581,11 @@
         <v>37.5</v>
       </c>
       <c r="D450">
-        <f t="shared" ref="C450:D513" si="7">C450/2</f>
+        <f t="shared" ref="D450:D513" si="7">C450/2</f>
         <v>18.75</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>21</v>
       </c>
@@ -9464,7 +9600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>21</v>
       </c>
@@ -9479,7 +9615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>21</v>
       </c>
@@ -9494,7 +9630,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>21</v>
       </c>
@@ -9509,7 +9645,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>21</v>
       </c>
@@ -9524,7 +9660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>21</v>
       </c>
@@ -9539,7 +9675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>21</v>
       </c>
@@ -9554,7 +9690,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>21</v>
       </c>
@@ -9569,7 +9705,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>21</v>
       </c>
@@ -9584,7 +9720,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>21</v>
       </c>
@@ -9599,7 +9735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>21</v>
       </c>
@@ -9614,7 +9750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>21</v>
       </c>
@@ -9629,7 +9765,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>21</v>
       </c>
@@ -9644,7 +9780,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>21</v>
       </c>
@@ -9659,7 +9795,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>22</v>
       </c>
@@ -9674,7 +9810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>22</v>
       </c>
@@ -9689,7 +9825,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>22</v>
       </c>
@@ -9704,7 +9840,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>22</v>
       </c>
@@ -9719,7 +9855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>22</v>
       </c>
@@ -9734,7 +9870,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>22</v>
       </c>
@@ -9749,7 +9885,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>22</v>
       </c>
@@ -9764,7 +9900,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>22</v>
       </c>
@@ -9779,7 +9915,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>22</v>
       </c>
@@ -9794,7 +9930,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>22</v>
       </c>
@@ -9809,7 +9945,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>22</v>
       </c>
@@ -9824,7 +9960,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>22</v>
       </c>
@@ -9839,7 +9975,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>22</v>
       </c>
@@ -9854,7 +9990,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>22</v>
       </c>
@@ -9869,7 +10005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>22</v>
       </c>
@@ -9884,7 +10020,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>22</v>
       </c>
@@ -9899,7 +10035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>22</v>
       </c>
@@ -9914,7 +10050,7 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>22</v>
       </c>
@@ -9929,7 +10065,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>22</v>
       </c>
@@ -9944,7 +10080,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>22</v>
       </c>
@@ -9959,7 +10095,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>22</v>
       </c>
@@ -9974,7 +10110,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>22</v>
       </c>
@@ -9989,7 +10125,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>22</v>
       </c>
@@ -10004,7 +10140,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>23</v>
       </c>
@@ -10019,7 +10155,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>23</v>
       </c>
@@ -10034,7 +10170,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>23</v>
       </c>
@@ -10049,7 +10185,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>23</v>
       </c>
@@ -10064,7 +10200,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>23</v>
       </c>
@@ -10079,7 +10215,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>23</v>
       </c>
@@ -10094,7 +10230,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>23</v>
       </c>
@@ -10109,7 +10245,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>23</v>
       </c>
@@ -10124,7 +10260,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>23</v>
       </c>
@@ -10139,7 +10275,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>23</v>
       </c>
@@ -10154,7 +10290,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>23</v>
       </c>
@@ -10169,7 +10305,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>23</v>
       </c>
@@ -10184,7 +10320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>23</v>
       </c>
@@ -10199,7 +10335,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>23</v>
       </c>
@@ -10214,7 +10350,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>23</v>
       </c>
@@ -10229,7 +10365,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>23</v>
       </c>
@@ -10244,7 +10380,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>23</v>
       </c>
@@ -10259,7 +10395,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>23</v>
       </c>
@@ -10274,7 +10410,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>23</v>
       </c>
@@ -10289,7 +10425,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>23</v>
       </c>
@@ -10304,7 +10440,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>23</v>
       </c>
@@ -10319,7 +10455,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>23</v>
       </c>
@@ -10334,7 +10470,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>24</v>
       </c>
@@ -10349,7 +10485,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>24</v>
       </c>
@@ -10364,7 +10500,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>24</v>
       </c>
@@ -10379,7 +10515,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>24</v>
       </c>
@@ -10394,7 +10530,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>24</v>
       </c>
@@ -10405,11 +10541,11 @@
         <v>25</v>
       </c>
       <c r="D514">
-        <f t="shared" ref="C514:D528" si="8">C514/2</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D514:D528" si="8">C514/2</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>24</v>
       </c>
@@ -10424,7 +10560,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>24</v>
       </c>
@@ -10439,7 +10575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>24</v>
       </c>
@@ -10454,7 +10590,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>24</v>
       </c>
@@ -10469,7 +10605,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>24</v>
       </c>
@@ -10484,7 +10620,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>24</v>
       </c>
@@ -10499,7 +10635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>24</v>
       </c>
@@ -10514,7 +10650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>24</v>
       </c>
@@ -10529,7 +10665,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>24</v>
       </c>
@@ -10544,7 +10680,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>24</v>
       </c>
@@ -10559,7 +10695,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>24</v>
       </c>
@@ -10574,7 +10710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>24</v>
       </c>
@@ -10589,7 +10725,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>24</v>
       </c>
@@ -10604,7 +10740,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>24</v>
       </c>
